--- a/rules_states.xlsx
+++ b/rules_states.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjohnson\Distributor Repo\Distributor_STI\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjohnson\Distributor Repo\sti-rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6F6AEA-27AF-49E4-87B1-CBEADDF66685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694A0A30-638B-4EC3-9B04-46B88C087CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15108,7 +15108,7 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
